--- a/data_files/Playoff Player Stats.xlsx
+++ b/data_files/Playoff Player Stats.xlsx
@@ -4258,7 +4258,9 @@
       <c r="AI39" s="1"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>2002.0</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4293,319 +4295,133 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>2006.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2006.0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>284.0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>151.0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="R41" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="U41" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="V41" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="W41" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="X41" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>214.0</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0.382</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0.746</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>47.3</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>35.7</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>5.7</v>
-      </c>
+        <v>2003.0</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>2006.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2006.0</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>321.0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>69.0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>156.0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="O42" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="P42" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="U42" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="V42" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="W42" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="X42" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>186.0</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0.442</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0.276</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0.727</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>45.9</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>6.0</v>
-      </c>
+        <v>2004.0</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>2007.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2007.0</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>182.0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="O43" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="P43" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="R43" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="U43" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="V43" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W43" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="X43" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0.425</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0.267</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0.813</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>45.4</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>7.5</v>
-      </c>
+        <v>2005.0</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="B44" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="1">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H44" s="1">
         <v>6.0</v>
@@ -4617,168 +4433,168 @@
         <v>2.0</v>
       </c>
       <c r="K44" s="1">
-        <v>264.0</v>
+        <v>284.0</v>
       </c>
       <c r="L44" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>151.0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="P44" s="1">
         <v>47.0</v>
       </c>
-      <c r="M44" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="N44" s="1">
+      <c r="Q44" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="U44" s="1">
         <v>8.0</v>
       </c>
-      <c r="O44" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="R44" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="U44" s="1">
-        <v>7.0</v>
-      </c>
       <c r="V44" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="W44" s="1">
-        <v>17.0</v>
+        <v>34.0</v>
       </c>
       <c r="X44" s="1">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y44" s="1">
-        <v>148.0</v>
+        <v>214.0</v>
       </c>
       <c r="AA44" s="1">
-        <v>0.423</v>
+        <v>0.51</v>
       </c>
       <c r="AB44" s="1">
-        <v>0.308</v>
+        <v>0.382</v>
       </c>
       <c r="AC44" s="1">
-        <v>0.754</v>
+        <v>0.746</v>
       </c>
       <c r="AE44" s="1">
-        <v>44.0</v>
+        <v>47.3</v>
       </c>
       <c r="AF44" s="1">
-        <v>24.7</v>
+        <v>35.7</v>
       </c>
       <c r="AG44" s="1">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AH44" s="1">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="B45" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="1">
-        <v>2007.0</v>
+        <v>2006.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H45" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>321.0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>156.0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>186.0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0.276</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0.727</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="AH45" s="1">
         <v>6.0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>277.0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>118.0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="R45" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="U45" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="V45" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W45" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="X45" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>154.0</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>0.449</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0.357</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0.741</v>
-      </c>
-      <c r="AE45" s="1">
-        <v>46.2</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>25.7</v>
-      </c>
-      <c r="AG45" s="1">
-        <v>9.2</v>
-      </c>
-      <c r="AH45" s="1">
-        <v>8.5</v>
       </c>
     </row>
     <row r="46">
@@ -4795,111 +4611,111 @@
         <v>2007.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H46" s="1">
         <v>4.0</v>
       </c>
       <c r="I46" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J46" s="1">
         <v>0.0</v>
       </c>
-      <c r="J46" s="1">
-        <v>4.0</v>
-      </c>
       <c r="K46" s="1">
-        <v>170.0</v>
+        <v>182.0</v>
       </c>
       <c r="L46" s="1">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="M46" s="1">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="N46" s="1">
         <v>4.0</v>
       </c>
       <c r="O46" s="1">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="P46" s="1">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
       <c r="Q46" s="1">
-        <v>29.0</v>
+        <v>48.0</v>
       </c>
       <c r="R46" s="1">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="S46" s="1">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="T46" s="1">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="U46" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="V46" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W46" s="1">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="X46" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y46" s="1">
-        <v>88.0</v>
+        <v>111.0</v>
       </c>
       <c r="AA46" s="1">
-        <v>0.356</v>
+        <v>0.425</v>
       </c>
       <c r="AB46" s="1">
-        <v>0.2</v>
+        <v>0.267</v>
       </c>
       <c r="AC46" s="1">
-        <v>0.69</v>
+        <v>0.813</v>
       </c>
       <c r="AE46" s="1">
-        <v>42.6</v>
+        <v>45.4</v>
       </c>
       <c r="AF46" s="1">
-        <v>22.0</v>
+        <v>27.8</v>
       </c>
       <c r="AG46" s="1">
-        <v>7.0</v>
+        <v>8.5</v>
       </c>
       <c r="AH46" s="1">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>2008.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B47" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="1">
-        <v>2008.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1">
         <v>6.0</v>
@@ -4911,779 +4727,779 @@
         <v>2.0</v>
       </c>
       <c r="K47" s="1">
-        <v>249.0</v>
+        <v>264.0</v>
       </c>
       <c r="L47" s="1">
-        <v>58.0</v>
+        <v>47.0</v>
       </c>
       <c r="M47" s="1">
-        <v>120.0</v>
+        <v>111.0</v>
       </c>
       <c r="N47" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="O47" s="1">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="P47" s="1">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
       <c r="Q47" s="1">
-        <v>77.0</v>
+        <v>61.0</v>
       </c>
       <c r="R47" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="U47" s="1">
         <v>7.0</v>
       </c>
-      <c r="S47" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="U47" s="1">
-        <v>8.0</v>
-      </c>
       <c r="V47" s="1">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="W47" s="1">
         <v>17.0</v>
       </c>
       <c r="X47" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y47" s="1">
-        <v>179.0</v>
+        <v>148.0</v>
       </c>
       <c r="AA47" s="1">
-        <v>0.483</v>
+        <v>0.423</v>
       </c>
       <c r="AB47" s="1">
-        <v>0.29</v>
+        <v>0.308</v>
       </c>
       <c r="AC47" s="1">
-        <v>0.701</v>
+        <v>0.754</v>
       </c>
       <c r="AE47" s="1">
-        <v>41.5</v>
+        <v>44.0</v>
       </c>
       <c r="AF47" s="1">
-        <v>29.8</v>
+        <v>24.7</v>
       </c>
       <c r="AG47" s="1">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="AH47" s="1">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>2008.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B48" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="1">
-        <v>2008.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H48" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>277.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="R48" s="1">
         <v>7.0</v>
       </c>
-      <c r="I48" s="1">
+      <c r="S48" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="V48" s="1">
         <v>3.0</v>
       </c>
-      <c r="J48" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>303.0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>155.0</v>
-      </c>
-      <c r="N48" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="O48" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="R48" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="U48" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="V48" s="1">
-        <v>9.0</v>
-      </c>
       <c r="W48" s="1">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
       <c r="X48" s="1">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y48" s="1">
-        <v>187.0</v>
+        <v>154.0</v>
       </c>
       <c r="AA48" s="1">
-        <v>0.355</v>
+        <v>0.449</v>
       </c>
       <c r="AB48" s="1">
-        <v>0.231</v>
+        <v>0.357</v>
       </c>
       <c r="AC48" s="1">
-        <v>0.756</v>
+        <v>0.741</v>
       </c>
       <c r="AE48" s="1">
-        <v>43.3</v>
+        <v>46.2</v>
       </c>
       <c r="AF48" s="1">
-        <v>26.7</v>
+        <v>25.7</v>
       </c>
       <c r="AG48" s="1">
-        <v>6.4</v>
+        <v>9.2</v>
       </c>
       <c r="AH48" s="1">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>2009.0</v>
+        <v>2007.0</v>
       </c>
       <c r="B49" s="1">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="1">
-        <v>2009.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H49" s="1">
         <v>4.0</v>
       </c>
       <c r="I49" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K49" s="1">
-        <v>162.0</v>
+        <v>170.0</v>
       </c>
       <c r="L49" s="1">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="M49" s="1">
-        <v>77.0</v>
+        <v>90.0</v>
       </c>
       <c r="N49" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O49" s="1">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="P49" s="1">
-        <v>47.0</v>
+        <v>20.0</v>
       </c>
       <c r="Q49" s="1">
-        <v>59.0</v>
+        <v>29.0</v>
       </c>
       <c r="R49" s="1">
         <v>4.0</v>
       </c>
       <c r="S49" s="1">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="T49" s="1">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="U49" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="V49" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="W49" s="1">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="X49" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y49" s="1">
-        <v>128.0</v>
+        <v>88.0</v>
       </c>
       <c r="AA49" s="1">
-        <v>0.506</v>
+        <v>0.356</v>
       </c>
       <c r="AB49" s="1">
-        <v>0.176</v>
+        <v>0.2</v>
       </c>
       <c r="AC49" s="1">
-        <v>0.797</v>
+        <v>0.69</v>
       </c>
       <c r="AE49" s="1">
-        <v>40.5</v>
+        <v>42.6</v>
       </c>
       <c r="AF49" s="1">
-        <v>32.0</v>
+        <v>22.0</v>
       </c>
       <c r="AG49" s="1">
-        <v>11.3</v>
+        <v>7.0</v>
       </c>
       <c r="AH49" s="1">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>2009.0</v>
+        <v>2008.0</v>
       </c>
       <c r="B50" s="1">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="1">
-        <v>2009.0</v>
+        <v>2008.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H50" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I50" s="1">
         <v>4.0</v>
       </c>
       <c r="J50" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K50" s="1">
-        <v>152.0</v>
+        <v>249.0</v>
       </c>
       <c r="L50" s="1">
-        <v>45.0</v>
+        <v>58.0</v>
       </c>
       <c r="M50" s="1">
-        <v>81.0</v>
+        <v>120.0</v>
       </c>
       <c r="N50" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="X50" s="1">
         <v>13.0</v>
       </c>
-      <c r="O50" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="P50" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="R50" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="U50" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="V50" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W50" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="X50" s="1">
-        <v>6.0</v>
-      </c>
       <c r="Y50" s="1">
-        <v>135.0</v>
+        <v>179.0</v>
       </c>
       <c r="AA50" s="1">
-        <v>0.556</v>
+        <v>0.483</v>
       </c>
       <c r="AB50" s="1">
-        <v>0.481</v>
+        <v>0.29</v>
       </c>
       <c r="AC50" s="1">
-        <v>0.696</v>
+        <v>0.701</v>
       </c>
       <c r="AE50" s="1">
-        <v>38.0</v>
+        <v>41.5</v>
       </c>
       <c r="AF50" s="1">
-        <v>33.8</v>
+        <v>29.8</v>
       </c>
       <c r="AG50" s="1">
-        <v>8.3</v>
+        <v>9.5</v>
       </c>
       <c r="AH50" s="1">
-        <v>6.0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>2009.0</v>
+        <v>2008.0</v>
       </c>
       <c r="B51" s="1">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="1">
-        <v>2009.0</v>
+        <v>2008.0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H51" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I51" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J51" s="1">
         <v>4.0</v>
       </c>
       <c r="K51" s="1">
-        <v>266.0</v>
+        <v>303.0</v>
       </c>
       <c r="L51" s="1">
-        <v>75.0</v>
+        <v>55.0</v>
       </c>
       <c r="M51" s="1">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="N51" s="1">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="O51" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="W51" s="1">
         <v>37.0</v>
       </c>
-      <c r="P51" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="U51" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="V51" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="W51" s="1">
-        <v>25.0</v>
-      </c>
       <c r="X51" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y51" s="1">
-        <v>231.0</v>
+        <v>187.0</v>
       </c>
       <c r="AA51" s="1">
-        <v>0.487</v>
+        <v>0.355</v>
       </c>
       <c r="AB51" s="1">
-        <v>0.297</v>
+        <v>0.231</v>
       </c>
       <c r="AC51" s="1">
-        <v>0.745</v>
+        <v>0.756</v>
       </c>
       <c r="AE51" s="1">
-        <v>44.3</v>
+        <v>43.3</v>
       </c>
       <c r="AF51" s="1">
-        <v>38.5</v>
+        <v>26.7</v>
       </c>
       <c r="AG51" s="1">
-        <v>8.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH51" s="1">
-        <v>8.0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="B52" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="1">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I52" s="1">
         <v>4.0</v>
       </c>
       <c r="J52" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K52" s="1">
-        <v>205.0</v>
+        <v>162.0</v>
       </c>
       <c r="L52" s="1">
-        <v>55.0</v>
+        <v>39.0</v>
       </c>
       <c r="M52" s="1">
-        <v>97.0</v>
+        <v>77.0</v>
       </c>
       <c r="N52" s="1">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="O52" s="1">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="P52" s="1">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="Q52" s="1">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
       <c r="R52" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="S52" s="1">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="T52" s="1">
-        <v>41.0</v>
+        <v>30.0</v>
       </c>
       <c r="U52" s="1">
         <v>6.0</v>
       </c>
       <c r="V52" s="1">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="W52" s="1">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="X52" s="1">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y52" s="1">
-        <v>159.0</v>
+        <v>128.0</v>
       </c>
       <c r="AA52" s="1">
-        <v>0.567</v>
+        <v>0.506</v>
       </c>
       <c r="AB52" s="1">
-        <v>0.542</v>
+        <v>0.176</v>
       </c>
       <c r="AC52" s="1">
-        <v>0.72</v>
+        <v>0.797</v>
       </c>
       <c r="AE52" s="1">
-        <v>41.0</v>
+        <v>40.5</v>
       </c>
       <c r="AF52" s="1">
-        <v>31.8</v>
+        <v>32.0</v>
       </c>
       <c r="AG52" s="1">
-        <v>9.2</v>
+        <v>11.3</v>
       </c>
       <c r="AH52" s="1">
-        <v>8.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="B53" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="1">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H53" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>152.0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X53" s="1">
         <v>6.0</v>
       </c>
-      <c r="I53" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>255.0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="M53" s="1">
-        <v>114.0</v>
-      </c>
-      <c r="N53" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="O53" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="P53" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="R53" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="S53" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="T53" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="U53" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="V53" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="W53" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="X53" s="1">
-        <v>12.0</v>
-      </c>
       <c r="Y53" s="1">
-        <v>161.0</v>
+        <v>135.0</v>
       </c>
       <c r="AA53" s="1">
-        <v>0.447</v>
+        <v>0.556</v>
       </c>
       <c r="AB53" s="1">
-        <v>0.269</v>
+        <v>0.481</v>
       </c>
       <c r="AC53" s="1">
-        <v>0.743</v>
+        <v>0.696</v>
       </c>
       <c r="AE53" s="1">
-        <v>42.5</v>
+        <v>38.0</v>
       </c>
       <c r="AF53" s="1">
-        <v>26.8</v>
+        <v>33.8</v>
       </c>
       <c r="AG53" s="1">
-        <v>9.3</v>
+        <v>8.3</v>
       </c>
       <c r="AH53" s="1">
-        <v>7.2</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>2011.0</v>
+        <v>2009.0</v>
       </c>
       <c r="B54" s="1">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D54" s="1">
-        <v>2011.0</v>
+        <v>2009.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H54" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I54" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J54" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K54" s="1">
-        <v>211.0</v>
+        <v>266.0</v>
       </c>
       <c r="L54" s="1">
-        <v>38.0</v>
+        <v>75.0</v>
       </c>
       <c r="M54" s="1">
-        <v>81.0</v>
+        <v>154.0</v>
       </c>
       <c r="N54" s="1">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="O54" s="1">
-        <v>16.0</v>
+        <v>37.0</v>
       </c>
       <c r="P54" s="1">
-        <v>41.0</v>
+        <v>70.0</v>
       </c>
       <c r="Q54" s="1">
+        <v>94.0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="S54" s="1">
         <v>50.0</v>
       </c>
-      <c r="R54" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>53.0</v>
-      </c>
       <c r="T54" s="1">
-        <v>31.0</v>
+        <v>48.0</v>
       </c>
       <c r="U54" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="V54" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="W54" s="1">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="X54" s="1">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="Y54" s="1">
-        <v>121.0</v>
+        <v>231.0</v>
       </c>
       <c r="AA54" s="1">
-        <v>0.469</v>
+        <v>0.487</v>
       </c>
       <c r="AB54" s="1">
-        <v>0.25</v>
+        <v>0.297</v>
       </c>
       <c r="AC54" s="1">
-        <v>0.82</v>
+        <v>0.745</v>
       </c>
       <c r="AE54" s="1">
-        <v>42.2</v>
+        <v>44.3</v>
       </c>
       <c r="AF54" s="1">
-        <v>24.2</v>
+        <v>38.5</v>
       </c>
       <c r="AG54" s="1">
-        <v>10.6</v>
+        <v>8.3</v>
       </c>
       <c r="AH54" s="1">
-        <v>6.2</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>2011.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B55" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D55" s="1">
-        <v>2011.0</v>
+        <v>2010.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H55" s="1">
         <v>5.0</v>
@@ -5695,168 +5511,168 @@
         <v>1.0</v>
       </c>
       <c r="K55" s="1">
-        <v>223.0</v>
+        <v>205.0</v>
       </c>
       <c r="L55" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="M55" s="1">
-        <v>108.0</v>
+        <v>97.0</v>
       </c>
       <c r="N55" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="O55" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="P55" s="1">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="Q55" s="1">
-        <v>42.0</v>
+        <v>50.0</v>
       </c>
       <c r="R55" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="S55" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="T55" s="1">
         <v>41.0</v>
       </c>
-      <c r="T55" s="1">
-        <v>18.0</v>
-      </c>
       <c r="U55" s="1">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="V55" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="W55" s="1">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="X55" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y55" s="1">
-        <v>140.0</v>
+        <v>159.0</v>
       </c>
       <c r="AA55" s="1">
-        <v>0.472</v>
+        <v>0.567</v>
       </c>
       <c r="AB55" s="1">
-        <v>0.435</v>
+        <v>0.542</v>
       </c>
       <c r="AC55" s="1">
-        <v>0.667</v>
+        <v>0.72</v>
       </c>
       <c r="AE55" s="1">
-        <v>44.6</v>
+        <v>41.0</v>
       </c>
       <c r="AF55" s="1">
-        <v>28.0</v>
+        <v>31.8</v>
       </c>
       <c r="AG55" s="1">
+        <v>9.2</v>
+      </c>
+      <c r="AH55" s="1">
         <v>8.2</v>
-      </c>
-      <c r="AH55" s="1">
-        <v>3.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>2011.0</v>
+        <v>2010.0</v>
       </c>
       <c r="B56" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D56" s="1">
-        <v>2011.0</v>
+        <v>2010.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H56" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I56" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J56" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K56" s="1">
-        <v>226.0</v>
+        <v>255.0</v>
       </c>
       <c r="L56" s="1">
-        <v>42.0</v>
+        <v>51.0</v>
       </c>
       <c r="M56" s="1">
-        <v>94.0</v>
+        <v>114.0</v>
       </c>
       <c r="N56" s="1">
         <v>7.0</v>
       </c>
       <c r="O56" s="1">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="P56" s="1">
-        <v>38.0</v>
+        <v>52.0</v>
       </c>
       <c r="Q56" s="1">
-        <v>44.0</v>
+        <v>70.0</v>
       </c>
       <c r="R56" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="S56" s="1">
-        <v>39.0</v>
+        <v>56.0</v>
       </c>
       <c r="T56" s="1">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
       <c r="U56" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="X56" s="1">
         <v>12.0</v>
       </c>
-      <c r="V56" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="W56" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="X56" s="1">
-        <v>15.0</v>
-      </c>
       <c r="Y56" s="1">
-        <v>129.0</v>
+        <v>161.0</v>
       </c>
       <c r="AA56" s="1">
         <v>0.447</v>
       </c>
       <c r="AB56" s="1">
-        <v>0.389</v>
+        <v>0.269</v>
       </c>
       <c r="AC56" s="1">
-        <v>0.864</v>
+        <v>0.743</v>
       </c>
       <c r="AE56" s="1">
-        <v>45.2</v>
+        <v>42.5</v>
       </c>
       <c r="AF56" s="1">
-        <v>25.8</v>
+        <v>26.8</v>
       </c>
       <c r="AG56" s="1">
-        <v>7.8</v>
+        <v>9.3</v>
       </c>
       <c r="AH56" s="1">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="57">
@@ -5873,111 +5689,111 @@
         <v>2011.0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I57" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="J57" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K57" s="1">
-        <v>262.0</v>
+        <v>211.0</v>
       </c>
       <c r="L57" s="1">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="M57" s="1">
-        <v>90.0</v>
+        <v>81.0</v>
       </c>
       <c r="N57" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X57" s="1">
         <v>9.0</v>
       </c>
-      <c r="O57" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="P57" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="R57" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S57" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="T57" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="U57" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="V57" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W57" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="X57" s="1">
-        <v>20.0</v>
-      </c>
       <c r="Y57" s="1">
-        <v>107.0</v>
+        <v>121.0</v>
       </c>
       <c r="AA57" s="1">
-        <v>0.478</v>
+        <v>0.469</v>
       </c>
       <c r="AB57" s="1">
-        <v>0.321</v>
+        <v>0.25</v>
       </c>
       <c r="AC57" s="1">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AE57" s="1">
-        <v>43.6</v>
+        <v>42.2</v>
       </c>
       <c r="AF57" s="1">
-        <v>17.8</v>
+        <v>24.2</v>
       </c>
       <c r="AG57" s="1">
-        <v>7.2</v>
+        <v>10.6</v>
       </c>
       <c r="AH57" s="1">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B58" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="1">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H58" s="1">
         <v>5.0</v>
@@ -5989,266 +5805,266 @@
         <v>1.0</v>
       </c>
       <c r="K58" s="1">
-        <v>189.0</v>
+        <v>223.0</v>
       </c>
       <c r="L58" s="1">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
       <c r="M58" s="1">
-        <v>90.0</v>
+        <v>108.0</v>
       </c>
       <c r="N58" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="O58" s="1">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="P58" s="1">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="Q58" s="1">
-        <v>57.0</v>
+        <v>42.0</v>
       </c>
       <c r="R58" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="S58" s="1">
-        <v>31.0</v>
+        <v>41.0</v>
       </c>
       <c r="T58" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0.472</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0.667</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="AF58" s="1">
         <v>28.0</v>
       </c>
-      <c r="U58" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="V58" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W58" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="X58" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>139.0</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>0.478</v>
-      </c>
-      <c r="AB58" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>0.807</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>37.8</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>27.8</v>
-      </c>
       <c r="AG58" s="1">
-        <v>6.2</v>
+        <v>8.2</v>
       </c>
       <c r="AH58" s="1">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B59" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="1">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H59" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I59" s="1">
         <v>4.0</v>
       </c>
       <c r="J59" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K59" s="1">
-        <v>253.0</v>
+        <v>226.0</v>
       </c>
       <c r="L59" s="1">
-        <v>70.0</v>
+        <v>42.0</v>
       </c>
       <c r="M59" s="1">
-        <v>139.0</v>
+        <v>94.0</v>
       </c>
       <c r="N59" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="O59" s="1">
         <v>18.0</v>
       </c>
       <c r="P59" s="1">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="Q59" s="1">
-        <v>51.0</v>
+        <v>44.0</v>
       </c>
       <c r="R59" s="1">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="S59" s="1">
-        <v>65.0</v>
+        <v>39.0</v>
       </c>
       <c r="T59" s="1">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="U59" s="1">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="V59" s="1">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="W59" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="X59" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y59" s="1">
-        <v>180.0</v>
+        <v>129.0</v>
       </c>
       <c r="AA59" s="1">
-        <v>0.504</v>
+        <v>0.447</v>
       </c>
       <c r="AB59" s="1">
-        <v>0.167</v>
+        <v>0.389</v>
       </c>
       <c r="AC59" s="1">
-        <v>0.725</v>
+        <v>0.864</v>
       </c>
       <c r="AE59" s="1">
-        <v>42.2</v>
+        <v>45.2</v>
       </c>
       <c r="AF59" s="1">
-        <v>30.0</v>
+        <v>25.8</v>
       </c>
       <c r="AG59" s="1">
-        <v>10.8</v>
+        <v>7.8</v>
       </c>
       <c r="AH59" s="1">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B60" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="1">
-        <v>2012.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H60" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I60" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J60" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K60" s="1">
-        <v>321.0</v>
+        <v>262.0</v>
       </c>
       <c r="L60" s="1">
-        <v>87.0</v>
+        <v>43.0</v>
       </c>
       <c r="M60" s="1">
-        <v>165.0</v>
+        <v>90.0</v>
       </c>
       <c r="N60" s="1">
         <v>9.0</v>
       </c>
       <c r="O60" s="1">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="P60" s="1">
-        <v>52.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q60" s="1">
-        <v>80.0</v>
+        <v>20.0</v>
       </c>
       <c r="R60" s="1">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="S60" s="1">
-        <v>77.0</v>
+        <v>43.0</v>
       </c>
       <c r="T60" s="1">
-        <v>27.0</v>
+        <v>41.0</v>
       </c>
       <c r="U60" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="V60" s="1">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="W60" s="1">
         <v>24.0</v>
       </c>
       <c r="X60" s="1">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y60" s="1">
-        <v>235.0</v>
+        <v>107.0</v>
       </c>
       <c r="AA60" s="1">
-        <v>0.527</v>
+        <v>0.478</v>
       </c>
       <c r="AB60" s="1">
-        <v>0.29</v>
+        <v>0.321</v>
       </c>
       <c r="AC60" s="1">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="AE60" s="1">
-        <v>45.8</v>
+        <v>43.6</v>
       </c>
       <c r="AF60" s="1">
-        <v>33.6</v>
+        <v>17.8</v>
       </c>
       <c r="AG60" s="1">
-        <v>11.0</v>
+        <v>7.2</v>
       </c>
       <c r="AH60" s="1">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="61">
@@ -6265,13 +6081,13 @@
         <v>2012.0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H61" s="1">
         <v>5.0</v>
@@ -6283,322 +6099,322 @@
         <v>1.0</v>
       </c>
       <c r="K61" s="1">
-        <v>220.0</v>
+        <v>189.0</v>
       </c>
       <c r="L61" s="1">
-        <v>51.0</v>
+        <v>43.0</v>
       </c>
       <c r="M61" s="1">
-        <v>108.0</v>
+        <v>90.0</v>
       </c>
       <c r="N61" s="1">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="O61" s="1">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="P61" s="1">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
       <c r="Q61" s="1">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
       <c r="R61" s="1">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="S61" s="1">
-        <v>51.0</v>
+        <v>31.0</v>
       </c>
       <c r="T61" s="1">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="U61" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="V61" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W61" s="1">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="X61" s="1">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y61" s="1">
-        <v>143.0</v>
+        <v>139.0</v>
       </c>
       <c r="AA61" s="1">
-        <v>0.472</v>
+        <v>0.478</v>
       </c>
       <c r="AB61" s="1">
-        <v>0.188</v>
+        <v>0.35</v>
       </c>
       <c r="AC61" s="1">
-        <v>0.826</v>
+        <v>0.807</v>
       </c>
       <c r="AE61" s="1">
-        <v>44.1</v>
+        <v>37.8</v>
       </c>
       <c r="AF61" s="1">
-        <v>28.6</v>
+        <v>27.8</v>
       </c>
       <c r="AG61" s="1">
-        <v>10.2</v>
+        <v>6.2</v>
       </c>
       <c r="AH61" s="1">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B62" s="1">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D62" s="1">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H62" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I62" s="1">
         <v>4.0</v>
       </c>
       <c r="J62" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K62" s="1">
-        <v>147.0</v>
+        <v>253.0</v>
       </c>
       <c r="L62" s="1">
-        <v>37.0</v>
+        <v>70.0</v>
       </c>
       <c r="M62" s="1">
-        <v>59.0</v>
+        <v>139.0</v>
       </c>
       <c r="N62" s="1">
         <v>3.0</v>
       </c>
       <c r="O62" s="1">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="P62" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="R62" s="1">
         <v>21.0</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="S62" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0.167</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0.725</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>42.2</v>
+      </c>
+      <c r="AF62" s="1">
         <v>30.0</v>
       </c>
-      <c r="R62" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S62" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="T62" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="U62" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="V62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W62" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="X62" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="Y62" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="AA62" s="1">
-        <v>0.627</v>
-      </c>
-      <c r="AB62" s="1">
-        <v>0.273</v>
-      </c>
-      <c r="AC62" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AE62" s="1">
-        <v>36.8</v>
-      </c>
-      <c r="AF62" s="1">
-        <v>24.5</v>
-      </c>
       <c r="AG62" s="1">
-        <v>7.8</v>
+        <v>10.8</v>
       </c>
       <c r="AH62" s="1">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B63" s="1">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D63" s="1">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H63" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I63" s="1">
         <v>4.0</v>
       </c>
       <c r="J63" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K63" s="1">
-        <v>208.0</v>
+        <v>321.0</v>
       </c>
       <c r="L63" s="1">
-        <v>35.0</v>
+        <v>87.0</v>
       </c>
       <c r="M63" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="Q63" s="1">
         <v>80.0</v>
       </c>
-      <c r="N63" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="O63" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="P63" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>52.0</v>
-      </c>
       <c r="R63" s="1">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="S63" s="1">
-        <v>35.0</v>
+        <v>77.0</v>
       </c>
       <c r="T63" s="1">
-        <v>39.0</v>
+        <v>27.0</v>
       </c>
       <c r="U63" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0.527</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0.29</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="AG63" s="1">
         <v>11.0</v>
       </c>
-      <c r="V63" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W63" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="X63" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>118.0</v>
-      </c>
-      <c r="AA63" s="1">
-        <v>0.438</v>
-      </c>
-      <c r="AB63" s="1">
-        <v>0.353</v>
-      </c>
-      <c r="AC63" s="1">
-        <v>0.808</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>41.7</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="AG63" s="1">
-        <v>7.0</v>
-      </c>
       <c r="AH63" s="1">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="B64" s="1">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D64" s="1">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H64" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I64" s="1">
         <v>4.0</v>
       </c>
       <c r="J64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="N64" s="1">
         <v>3.0</v>
       </c>
-      <c r="K64" s="1">
-        <v>304.0</v>
-      </c>
-      <c r="L64" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="M64" s="1">
-        <v>143.0</v>
-      </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="R64" s="1">
         <v>15.0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>13.0</v>
       </c>
       <c r="S64" s="1">
         <v>51.0</v>
@@ -6607,40 +6423,40 @@
         <v>37.0</v>
       </c>
       <c r="U64" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="X64" s="1">
         <v>10.0</v>
       </c>
-      <c r="V64" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="W64" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="X64" s="1">
-        <v>18.0</v>
-      </c>
       <c r="Y64" s="1">
-        <v>203.0</v>
+        <v>143.0</v>
       </c>
       <c r="AA64" s="1">
-        <v>0.51</v>
+        <v>0.472</v>
       </c>
       <c r="AB64" s="1">
-        <v>0.441</v>
+        <v>0.188</v>
       </c>
       <c r="AC64" s="1">
-        <v>0.778</v>
+        <v>0.826</v>
       </c>
       <c r="AE64" s="1">
-        <v>43.4</v>
+        <v>44.1</v>
       </c>
       <c r="AF64" s="1">
-        <v>29.0</v>
+        <v>28.6</v>
       </c>
       <c r="AG64" s="1">
-        <v>7.3</v>
+        <v>10.2</v>
       </c>
       <c r="AH64" s="1">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="65">
@@ -6657,382 +6473,382 @@
         <v>2013.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H65" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="I65" s="1">
         <v>4.0</v>
       </c>
       <c r="J65" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>147.0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="N65" s="1">
         <v>3.0</v>
       </c>
-      <c r="K65" s="1">
-        <v>301.0</v>
-      </c>
-      <c r="L65" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="M65" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="N65" s="1">
-        <v>12.0</v>
-      </c>
       <c r="O65" s="1">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c r="P65" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="S65" s="1">
         <v>31.0</v>
       </c>
-      <c r="Q65" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="R65" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="S65" s="1">
-        <v>76.0</v>
-      </c>
       <c r="T65" s="1">
-        <v>49.0</v>
+        <v>27.0</v>
       </c>
       <c r="U65" s="1">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="V65" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="W65" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="X65" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y65" s="1">
-        <v>177.0</v>
+        <v>98.0</v>
       </c>
       <c r="AA65" s="1">
-        <v>0.447</v>
+        <v>0.627</v>
       </c>
       <c r="AB65" s="1">
-        <v>0.353</v>
+        <v>0.273</v>
       </c>
       <c r="AC65" s="1">
-        <v>0.795</v>
+        <v>0.7</v>
       </c>
       <c r="AE65" s="1">
-        <v>43.0</v>
+        <v>36.8</v>
       </c>
       <c r="AF65" s="1">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="AG65" s="1">
-        <v>10.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH65" s="1">
-        <v>7.0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B66" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D66" s="1">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H66" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I66" s="1">
         <v>4.0</v>
       </c>
       <c r="J66" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K66" s="1">
-        <v>157.0</v>
+        <v>208.0</v>
       </c>
       <c r="L66" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="T66" s="1">
         <v>39.0</v>
       </c>
-      <c r="M66" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="N66" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="O66" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="P66" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="R66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S66" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="T66" s="1">
-        <v>24.0</v>
-      </c>
       <c r="U66" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="V66" s="1">
         <v>1.0</v>
       </c>
       <c r="W66" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="X66" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0.353</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0.808</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="AG66" s="1">
         <v>7.0</v>
       </c>
-      <c r="Y66" s="1">
-        <v>120.0</v>
-      </c>
-      <c r="AA66" s="1">
-        <v>0.557</v>
-      </c>
-      <c r="AB66" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>0.795</v>
-      </c>
-      <c r="AE66" s="1">
-        <v>39.3</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>8.0</v>
-      </c>
       <c r="AH66" s="1">
-        <v>6.0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B67" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D67" s="1">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H67" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I67" s="1">
         <v>4.0</v>
       </c>
       <c r="J67" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K67" s="1">
-        <v>202.0</v>
+        <v>304.0</v>
       </c>
       <c r="L67" s="1">
-        <v>49.0</v>
+        <v>73.0</v>
       </c>
       <c r="M67" s="1">
-        <v>86.0</v>
+        <v>143.0</v>
       </c>
       <c r="N67" s="1">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="O67" s="1">
-        <v>21.0</v>
+        <v>34.0</v>
       </c>
       <c r="P67" s="1">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q67" s="1">
         <v>54.0</v>
       </c>
       <c r="R67" s="1">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="S67" s="1">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="T67" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="X67" s="1">
         <v>18.0</v>
       </c>
-      <c r="U67" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="V67" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W67" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="X67" s="1">
-        <v>12.0</v>
-      </c>
       <c r="Y67" s="1">
-        <v>150.0</v>
+        <v>203.0</v>
       </c>
       <c r="AA67" s="1">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="AB67" s="1">
-        <v>0.381</v>
+        <v>0.441</v>
       </c>
       <c r="AC67" s="1">
-        <v>0.815</v>
+        <v>0.778</v>
       </c>
       <c r="AE67" s="1">
-        <v>40.4</v>
+        <v>43.4</v>
       </c>
       <c r="AF67" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="AG67" s="1">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="AH67" s="1">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="B68" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D68" s="1">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H68" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>301.0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="V68" s="1">
         <v>6.0</v>
       </c>
-      <c r="I68" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J68" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>215.0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="M68" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="N68" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="O68" s="1">
+      <c r="W68" s="1">
         <v>18.0</v>
       </c>
-      <c r="P68" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="R68" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="S68" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="T68" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="U68" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="V68" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="W68" s="1">
-        <v>20.0</v>
-      </c>
       <c r="X68" s="1">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y68" s="1">
-        <v>137.0</v>
+        <v>177.0</v>
       </c>
       <c r="AA68" s="1">
-        <v>0.559</v>
+        <v>0.447</v>
       </c>
       <c r="AB68" s="1">
-        <v>0.333</v>
+        <v>0.353</v>
       </c>
       <c r="AC68" s="1">
-        <v>0.818</v>
+        <v>0.795</v>
       </c>
       <c r="AE68" s="1">
-        <v>35.8</v>
+        <v>43.0</v>
       </c>
       <c r="AF68" s="1">
-        <v>22.8</v>
+        <v>25.3</v>
       </c>
       <c r="AG68" s="1">
-        <v>6.3</v>
+        <v>10.9</v>
       </c>
       <c r="AH68" s="1">
-        <v>5.5</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="69">
@@ -7049,209 +6865,209 @@
         <v>2014.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H69" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I69" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="V69" s="1">
         <v>1.0</v>
       </c>
-      <c r="J69" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K69" s="1">
-        <v>189.0</v>
-      </c>
-      <c r="L69" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="M69" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="N69" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="O69" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="P69" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="R69" s="1">
+      <c r="W69" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="X69" s="1">
         <v>7.0</v>
       </c>
-      <c r="S69" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="T69" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="U69" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="V69" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W69" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="X69" s="1">
-        <v>10.0</v>
-      </c>
       <c r="Y69" s="1">
-        <v>141.0</v>
+        <v>120.0</v>
       </c>
       <c r="AA69" s="1">
-        <v>0.571</v>
+        <v>0.557</v>
       </c>
       <c r="AB69" s="1">
-        <v>0.519</v>
+        <v>0.35</v>
       </c>
       <c r="AC69" s="1">
-        <v>0.793</v>
+        <v>0.795</v>
       </c>
       <c r="AE69" s="1">
-        <v>37.8</v>
+        <v>39.3</v>
       </c>
       <c r="AF69" s="1">
-        <v>28.2</v>
+        <v>30.0</v>
       </c>
       <c r="AG69" s="1">
-        <v>7.8</v>
+        <v>8.0</v>
       </c>
       <c r="AH69" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B70" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>202.0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0.57</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0.381</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0.815</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="AF70" s="1">
         <v>30.0</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K70" s="1">
-        <v>172.0</v>
-      </c>
-      <c r="L70" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="N70" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="O70" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="P70" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="R70" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="S70" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="T70" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="U70" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="V70" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="W70" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="X70" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="Y70" s="1">
-        <v>108.0</v>
-      </c>
-      <c r="AA70" s="1">
-        <v>0.467</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>0.741</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>27.0</v>
-      </c>
       <c r="AG70" s="1">
-        <v>9.0</v>
+        <v>6.4</v>
       </c>
       <c r="AH70" s="1">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B71" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D71" s="1">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H71" s="1">
         <v>6.0</v>
@@ -7263,168 +7079,168 @@
         <v>2.0</v>
       </c>
       <c r="K71" s="1">
-        <v>245.0</v>
+        <v>215.0</v>
       </c>
       <c r="L71" s="1">
-        <v>61.0</v>
+        <v>52.0</v>
       </c>
       <c r="M71" s="1">
-        <v>153.0</v>
+        <v>93.0</v>
       </c>
       <c r="N71" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="O71" s="1">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="P71" s="1">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q71" s="1">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="R71" s="1">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="S71" s="1">
-        <v>66.0</v>
+        <v>38.0</v>
       </c>
       <c r="T71" s="1">
-        <v>53.0</v>
+        <v>33.0</v>
       </c>
       <c r="U71" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="V71" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="W71" s="1">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="X71" s="1">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y71" s="1">
-        <v>157.0</v>
+        <v>137.0</v>
       </c>
       <c r="AA71" s="1">
-        <v>0.399</v>
+        <v>0.559</v>
       </c>
       <c r="AB71" s="1">
-        <v>0.107</v>
+        <v>0.333</v>
       </c>
       <c r="AC71" s="1">
-        <v>0.8</v>
+        <v>0.818</v>
       </c>
       <c r="AE71" s="1">
-        <v>40.8</v>
+        <v>35.8</v>
       </c>
       <c r="AF71" s="1">
-        <v>26.2</v>
+        <v>22.8</v>
       </c>
       <c r="AG71" s="1">
-        <v>11.0</v>
+        <v>6.3</v>
       </c>
       <c r="AH71" s="1">
-        <v>8.8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="B72" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D72" s="1">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H72" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I72" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J72" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K72" s="1">
-        <v>153.0</v>
+        <v>189.0</v>
       </c>
       <c r="L72" s="1">
-        <v>46.0</v>
+        <v>52.0</v>
       </c>
       <c r="M72" s="1">
-        <v>105.0</v>
+        <v>91.0</v>
       </c>
       <c r="N72" s="1">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="O72" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="T72" s="1">
         <v>20.0</v>
       </c>
-      <c r="P72" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="R72" s="1">
+      <c r="U72" s="1">
         <v>10.0</v>
-      </c>
-      <c r="S72" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="T72" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="U72" s="1">
-        <v>6.0</v>
       </c>
       <c r="V72" s="1">
         <v>2.0</v>
       </c>
       <c r="W72" s="1">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="X72" s="1">
         <v>10.0</v>
       </c>
       <c r="Y72" s="1">
-        <v>121.0</v>
+        <v>141.0</v>
       </c>
       <c r="AA72" s="1">
-        <v>0.438</v>
+        <v>0.571</v>
       </c>
       <c r="AB72" s="1">
-        <v>0.25</v>
+        <v>0.519</v>
       </c>
       <c r="AC72" s="1">
-        <v>0.727</v>
+        <v>0.793</v>
       </c>
       <c r="AE72" s="1">
-        <v>38.2</v>
+        <v>37.8</v>
       </c>
       <c r="AF72" s="1">
-        <v>30.3</v>
+        <v>28.2</v>
       </c>
       <c r="AG72" s="1">
-        <v>11.0</v>
+        <v>7.8</v>
       </c>
       <c r="AH72" s="1">
-        <v>9.3</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
@@ -7441,203 +7257,203 @@
         <v>2015.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H73" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>172.0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="V73" s="1">
         <v>6.0</v>
       </c>
-      <c r="I73" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J73" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K73" s="1">
-        <v>274.0</v>
-      </c>
-      <c r="L73" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="M73" s="1">
-        <v>196.0</v>
-      </c>
-      <c r="N73" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="O73" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="P73" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="R73" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="S73" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="T73" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="U73" s="1">
+      <c r="W73" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="X73" s="1">
         <v>8.0</v>
       </c>
-      <c r="V73" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W73" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="X73" s="1">
-        <v>19.0</v>
-      </c>
       <c r="Y73" s="1">
-        <v>215.0</v>
+        <v>108.0</v>
       </c>
       <c r="AA73" s="1">
-        <v>0.398</v>
+        <v>0.467</v>
       </c>
       <c r="AB73" s="1">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AC73" s="1">
-        <v>0.687</v>
+        <v>0.741</v>
       </c>
       <c r="AE73" s="1">
-        <v>45.7</v>
+        <v>43.0</v>
       </c>
       <c r="AF73" s="1">
-        <v>35.8</v>
+        <v>27.0</v>
       </c>
       <c r="AG73" s="1">
-        <v>13.3</v>
+        <v>9.0</v>
       </c>
       <c r="AH73" s="1">
-        <v>8.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B74" s="1">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D74" s="1">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H74" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I74" s="1">
         <v>4.0</v>
       </c>
       <c r="J74" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K74" s="1">
-        <v>165.0</v>
+        <v>245.0</v>
       </c>
       <c r="L74" s="1">
-        <v>38.0</v>
+        <v>61.0</v>
       </c>
       <c r="M74" s="1">
-        <v>78.0</v>
+        <v>153.0</v>
       </c>
       <c r="N74" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="O74" s="1">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="P74" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="U74" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V74" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="X74" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>157.0</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0.399</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>40.8</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="AG74" s="1">
         <v>11.0</v>
       </c>
-      <c r="Q74" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="R74" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S74" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="T74" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="U74" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="V74" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W74" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="X74" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="Y74" s="1">
-        <v>91.0</v>
-      </c>
-      <c r="AA74" s="1">
-        <v>0.487</v>
-      </c>
-      <c r="AB74" s="1">
-        <v>0.211</v>
-      </c>
-      <c r="AC74" s="1">
-        <v>0.733</v>
-      </c>
-      <c r="AE74" s="1">
-        <v>41.2</v>
-      </c>
-      <c r="AF74" s="1">
-        <v>22.8</v>
-      </c>
-      <c r="AG74" s="1">
-        <v>9.0</v>
-      </c>
       <c r="AH74" s="1">
-        <v>6.8</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B75" s="1">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D75" s="1">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>48</v>
@@ -7655,168 +7471,168 @@
         <v>0.0</v>
       </c>
       <c r="K75" s="1">
-        <v>146.0</v>
+        <v>153.0</v>
       </c>
       <c r="L75" s="1">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
       <c r="M75" s="1">
-        <v>75.0</v>
+        <v>105.0</v>
       </c>
       <c r="N75" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="O75" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="P75" s="1">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q75" s="1">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
       <c r="R75" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="S75" s="1">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="T75" s="1">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="U75" s="1">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="V75" s="1">
         <v>2.0</v>
       </c>
       <c r="W75" s="1">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="X75" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0.727</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>38.2</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="AG75" s="1">
         <v>11.0</v>
       </c>
-      <c r="Y75" s="1">
-        <v>97.0</v>
-      </c>
-      <c r="AA75" s="1">
-        <v>0.507</v>
-      </c>
-      <c r="AB75" s="1">
-        <v>0.421</v>
-      </c>
-      <c r="AC75" s="1">
-        <v>0.591</v>
-      </c>
-      <c r="AE75" s="1">
-        <v>36.4</v>
-      </c>
-      <c r="AF75" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="AG75" s="1">
-        <v>8.5</v>
-      </c>
       <c r="AH75" s="1">
-        <v>7.8</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="B76" s="1">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D76" s="1">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H76" s="1">
         <v>6.0</v>
       </c>
       <c r="I76" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J76" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K76" s="1">
-        <v>219.0</v>
+        <v>274.0</v>
       </c>
       <c r="L76" s="1">
-        <v>61.0</v>
+        <v>78.0</v>
       </c>
       <c r="M76" s="1">
-        <v>98.0</v>
+        <v>196.0</v>
       </c>
       <c r="N76" s="1">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="O76" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="U76" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="V76" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W76" s="1">
         <v>21.0</v>
       </c>
-      <c r="P76" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="R76" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="S76" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="T76" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="U76" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="V76" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="W76" s="1">
-        <v>14.0</v>
-      </c>
       <c r="X76" s="1">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="Y76" s="1">
-        <v>156.0</v>
+        <v>215.0</v>
       </c>
       <c r="AA76" s="1">
-        <v>0.622</v>
+        <v>0.398</v>
       </c>
       <c r="AB76" s="1">
-        <v>0.333</v>
+        <v>0.31</v>
       </c>
       <c r="AC76" s="1">
-        <v>0.614</v>
+        <v>0.687</v>
       </c>
       <c r="AE76" s="1">
-        <v>36.6</v>
+        <v>45.7</v>
       </c>
       <c r="AF76" s="1">
-        <v>26.0</v>
+        <v>35.8</v>
       </c>
       <c r="AG76" s="1">
-        <v>8.5</v>
+        <v>13.3</v>
       </c>
       <c r="AH76" s="1">
-        <v>6.7</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="77">
@@ -7833,111 +7649,111 @@
         <v>2016.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>165.0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="U77" s="1">
         <v>7.0</v>
       </c>
-      <c r="I77" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J77" s="1">
+      <c r="V77" s="1">
         <v>3.0</v>
       </c>
-      <c r="K77" s="1">
-        <v>292.0</v>
-      </c>
-      <c r="L77" s="1">
-        <v>82.0</v>
-      </c>
-      <c r="M77" s="1">
-        <v>166.0</v>
-      </c>
-      <c r="N77" s="1">
+      <c r="W77" s="1">
         <v>13.0</v>
       </c>
-      <c r="O77" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="P77" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="S77" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="T77" s="1">
-        <v>62.0</v>
-      </c>
-      <c r="U77" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="V77" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="W77" s="1">
-        <v>31.0</v>
-      </c>
       <c r="X77" s="1">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y77" s="1">
-        <v>208.0</v>
+        <v>91.0</v>
       </c>
       <c r="AA77" s="1">
-        <v>0.494</v>
+        <v>0.487</v>
       </c>
       <c r="AB77" s="1">
-        <v>0.371</v>
+        <v>0.211</v>
       </c>
       <c r="AC77" s="1">
-        <v>0.721</v>
+        <v>0.733</v>
       </c>
       <c r="AE77" s="1">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="AF77" s="1">
-        <v>29.7</v>
+        <v>22.8</v>
       </c>
       <c r="AG77" s="1">
-        <v>11.3</v>
+        <v>9.0</v>
       </c>
       <c r="AH77" s="1">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B78" s="1">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D78" s="1">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H78" s="1">
         <v>4.0</v>
@@ -7949,266 +7765,266 @@
         <v>0.0</v>
       </c>
       <c r="K78" s="1">
-        <v>175.0</v>
+        <v>146.0</v>
       </c>
       <c r="L78" s="1">
-        <v>50.0</v>
+        <v>38.0</v>
       </c>
       <c r="M78" s="1">
-        <v>92.0</v>
+        <v>75.0</v>
       </c>
       <c r="N78" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="O78" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="P78" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="Q78" s="1">
         <v>22.0</v>
       </c>
-      <c r="Q78" s="1">
-        <v>38.0</v>
-      </c>
       <c r="R78" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="S78" s="1">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="T78" s="1">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="U78" s="1">
         <v>12.0</v>
       </c>
       <c r="V78" s="1">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="W78" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="X78" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y78" s="1">
-        <v>131.0</v>
+        <v>97.0</v>
       </c>
       <c r="AA78" s="1">
-        <v>0.543</v>
+        <v>0.507</v>
       </c>
       <c r="AB78" s="1">
-        <v>0.45</v>
+        <v>0.421</v>
       </c>
       <c r="AC78" s="1">
-        <v>0.579</v>
+        <v>0.591</v>
       </c>
       <c r="AE78" s="1">
-        <v>43.7</v>
+        <v>36.4</v>
       </c>
       <c r="AF78" s="1">
-        <v>32.8</v>
+        <v>24.3</v>
       </c>
       <c r="AG78" s="1">
-        <v>9.8</v>
+        <v>8.5</v>
       </c>
       <c r="AH78" s="1">
-        <v>9.0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B79" s="1">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D79" s="1">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H79" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I79" s="1">
         <v>4.0</v>
       </c>
       <c r="J79" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K79" s="1">
-        <v>164.0</v>
+        <v>219.0</v>
       </c>
       <c r="L79" s="1">
-        <v>43.0</v>
+        <v>61.0</v>
       </c>
       <c r="M79" s="1">
-        <v>75.0</v>
+        <v>98.0</v>
       </c>
       <c r="N79" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="R79" s="1">
         <v>13.0</v>
       </c>
-      <c r="O79" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="P79" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="R79" s="1">
-        <v>4.0</v>
-      </c>
       <c r="S79" s="1">
-        <v>33.0</v>
+        <v>51.0</v>
       </c>
       <c r="T79" s="1">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="U79" s="1">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="V79" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="W79" s="1">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="X79" s="1">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y79" s="1">
-        <v>144.0</v>
+        <v>156.0</v>
       </c>
       <c r="AA79" s="1">
-        <v>0.573</v>
+        <v>0.622</v>
       </c>
       <c r="AB79" s="1">
-        <v>0.481</v>
+        <v>0.333</v>
       </c>
       <c r="AC79" s="1">
-        <v>0.833</v>
+        <v>0.614</v>
       </c>
       <c r="AE79" s="1">
-        <v>41.1</v>
+        <v>36.6</v>
       </c>
       <c r="AF79" s="1">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
       <c r="AG79" s="1">
-        <v>8.3</v>
+        <v>8.5</v>
       </c>
       <c r="AH79" s="1">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="B80" s="1">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D80" s="1">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H80" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I80" s="1">
         <v>4.0</v>
       </c>
       <c r="J80" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K80" s="1">
-        <v>193.0</v>
+        <v>292.0</v>
       </c>
       <c r="L80" s="1">
-        <v>58.0</v>
+        <v>82.0</v>
       </c>
       <c r="M80" s="1">
-        <v>100.0</v>
+        <v>166.0</v>
       </c>
       <c r="N80" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="O80" s="1">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="P80" s="1">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="Q80" s="1">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
       <c r="R80" s="1">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="S80" s="1">
-        <v>32.0</v>
+        <v>79.0</v>
       </c>
       <c r="T80" s="1">
-        <v>34.0</v>
+        <v>62.0</v>
       </c>
       <c r="U80" s="1">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="V80" s="1">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="W80" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="X80" s="1">
         <v>16.0</v>
       </c>
-      <c r="X80" s="1">
-        <v>13.0</v>
-      </c>
       <c r="Y80" s="1">
-        <v>148.0</v>
+        <v>208.0</v>
       </c>
       <c r="AA80" s="1">
-        <v>0.58</v>
+        <v>0.494</v>
       </c>
       <c r="AB80" s="1">
-        <v>0.345</v>
+        <v>0.371</v>
       </c>
       <c r="AC80" s="1">
-        <v>0.667</v>
+        <v>0.721</v>
       </c>
       <c r="AE80" s="1">
-        <v>38.6</v>
+        <v>41.7</v>
       </c>
       <c r="AF80" s="1">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="AG80" s="1">
-        <v>6.4</v>
+        <v>11.3</v>
       </c>
       <c r="AH80" s="1">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="81">
@@ -8225,382 +8041,382 @@
         <v>2017.0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H81" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I81" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J81" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K81" s="1">
-        <v>212.0</v>
+        <v>175.0</v>
       </c>
       <c r="L81" s="1">
-        <v>66.0</v>
+        <v>50.0</v>
       </c>
       <c r="M81" s="1">
-        <v>117.0</v>
+        <v>92.0</v>
       </c>
       <c r="N81" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="P81" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="U81" s="1">
         <v>12.0</v>
       </c>
-      <c r="O81" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="P81" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="R81" s="1">
+      <c r="V81" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="X81" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>131.0</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>0.543</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>0.579</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>32.8</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>9.8</v>
+      </c>
+      <c r="AH81" s="1">
         <v>9.0</v>
-      </c>
-      <c r="S81" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="T81" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="U81" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="V81" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="W81" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="X81" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>168.0</v>
-      </c>
-      <c r="AA81" s="1">
-        <v>0.564</v>
-      </c>
-      <c r="AB81" s="1">
-        <v>0.387</v>
-      </c>
-      <c r="AC81" s="1">
-        <v>0.649</v>
-      </c>
-      <c r="AE81" s="1">
-        <v>42.4</v>
-      </c>
-      <c r="AF81" s="1">
-        <v>33.6</v>
-      </c>
-      <c r="AG81" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="AH81" s="1">
-        <v>10.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B82" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D82" s="1">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H82" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>164.0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="X82" s="1">
         <v>7.0</v>
       </c>
-      <c r="I82" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="K82" s="1">
-        <v>288.0</v>
-      </c>
-      <c r="L82" s="1">
-        <v>83.0</v>
-      </c>
-      <c r="M82" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="N82" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="O82" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="P82" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="S82" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="T82" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="U82" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="V82" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="W82" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="X82" s="1">
-        <v>17.0</v>
-      </c>
       <c r="Y82" s="1">
-        <v>241.0</v>
+        <v>144.0</v>
       </c>
       <c r="AA82" s="1">
-        <v>0.553</v>
+        <v>0.573</v>
       </c>
       <c r="AB82" s="1">
-        <v>0.353</v>
+        <v>0.481</v>
       </c>
       <c r="AC82" s="1">
-        <v>0.818</v>
+        <v>0.833</v>
       </c>
       <c r="AE82" s="1">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="AF82" s="1">
-        <v>34.4</v>
+        <v>36.0</v>
       </c>
       <c r="AG82" s="1">
-        <v>10.0</v>
+        <v>8.3</v>
       </c>
       <c r="AH82" s="1">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B83" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D83" s="1">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="H83" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I83" s="1">
         <v>4.0</v>
       </c>
       <c r="J83" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K83" s="1">
-        <v>167.0</v>
+        <v>193.0</v>
       </c>
       <c r="L83" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="M83" s="1">
-        <v>103.0</v>
+        <v>100.0</v>
       </c>
       <c r="N83" s="1">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="O83" s="1">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="P83" s="1">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q83" s="1">
         <v>33.0</v>
       </c>
       <c r="R83" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="S83" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="T83" s="1">
-        <v>45.0</v>
+        <v>34.0</v>
       </c>
       <c r="U83" s="1">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="V83" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="W83" s="1">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="X83" s="1">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y83" s="1">
-        <v>136.0</v>
+        <v>148.0</v>
       </c>
       <c r="AA83" s="1">
-        <v>0.553</v>
+        <v>0.58</v>
       </c>
       <c r="AB83" s="1">
-        <v>0.167</v>
+        <v>0.345</v>
       </c>
       <c r="AC83" s="1">
-        <v>0.576</v>
+        <v>0.667</v>
       </c>
       <c r="AE83" s="1">
-        <v>41.8</v>
+        <v>38.6</v>
       </c>
       <c r="AF83" s="1">
-        <v>34.0</v>
+        <v>29.6</v>
       </c>
       <c r="AG83" s="1">
-        <v>8.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH83" s="1">
-        <v>11.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B84" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D84" s="1">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H84" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>212.0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="U84" s="1">
         <v>7.0</v>
       </c>
-      <c r="I84" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J84" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="K84" s="1">
-        <v>288.0</v>
-      </c>
-      <c r="L84" s="1">
-        <v>86.0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>164.0</v>
-      </c>
-      <c r="N84" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="O84" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="P84" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S84" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="T84" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="U84" s="1">
-        <v>8.0</v>
-      </c>
       <c r="V84" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="W84" s="1">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="X84" s="1">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y84" s="1">
-        <v>235.0</v>
+        <v>168.0</v>
       </c>
       <c r="AA84" s="1">
-        <v>0.524</v>
+        <v>0.564</v>
       </c>
       <c r="AB84" s="1">
-        <v>0.409</v>
+        <v>0.387</v>
       </c>
       <c r="AC84" s="1">
-        <v>0.692</v>
+        <v>0.649</v>
       </c>
       <c r="AE84" s="1">
-        <v>41.1</v>
+        <v>42.4</v>
       </c>
       <c r="AF84" s="1">
         <v>33.6</v>
       </c>
       <c r="AG84" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="AH84" s="1">
-        <v>8.4</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="85">
@@ -8617,382 +8433,387 @@
         <v>2018.0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H85" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="I85" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>83.0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="U85" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V85" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="W85" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="X85" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>0.553</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>0.353</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>0.818</v>
+      </c>
+      <c r="AE85" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="AG85" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>2018.0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2018.0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J86" s="1">
         <v>0.0</v>
       </c>
-      <c r="J85" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K85" s="1">
-        <v>179.0</v>
-      </c>
-      <c r="L85" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="M85" s="1">
-        <v>93.0</v>
-      </c>
-      <c r="N85" s="1">
+      <c r="K86" s="1">
+        <v>167.0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="S86" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="U86" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="V86" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W86" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="X86" s="1">
         <v>6.0</v>
       </c>
-      <c r="O85" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="P85" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="R85" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="S85" s="1">
+      <c r="Y86" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>0.553</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0.167</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>0.576</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="AF86" s="1">
         <v>34.0</v>
       </c>
-      <c r="T85" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="U85" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="V85" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="W85" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="X85" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="Y85" s="1">
-        <v>136.0</v>
-      </c>
-      <c r="AA85" s="1">
-        <v>0.527</v>
-      </c>
-      <c r="AB85" s="1">
-        <v>0.333</v>
-      </c>
-      <c r="AC85" s="1">
-        <v>0.842</v>
-      </c>
-      <c r="AE85" s="1">
-        <v>44.7</v>
-      </c>
-      <c r="AF85" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="AG85" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="AH85" s="1">
-        <v>10.0</v>
+      <c r="AG86" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>11.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B87" s="1">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D87" s="1">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H87" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I87" s="1">
         <v>4.0</v>
       </c>
       <c r="J87" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K87" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="M87" s="1">
         <v>164.0</v>
       </c>
-      <c r="L87" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>80.0</v>
-      </c>
       <c r="N87" s="1">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="O87" s="1">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="P87" s="1">
-        <v>28.0</v>
+        <v>45.0</v>
       </c>
       <c r="Q87" s="1">
-        <v>38.0</v>
+        <v>65.0</v>
       </c>
       <c r="R87" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="S87" s="1">
-        <v>51.0</v>
+        <v>63.0</v>
       </c>
       <c r="T87" s="1">
-        <v>51.0</v>
+        <v>59.0</v>
       </c>
       <c r="U87" s="1">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="V87" s="1">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="W87" s="1">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="X87" s="1">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y87" s="1">
-        <v>137.0</v>
+        <v>235.0</v>
       </c>
       <c r="AA87" s="1">
-        <v>0.6</v>
+        <v>0.524</v>
       </c>
       <c r="AB87" s="1">
-        <v>0.464</v>
+        <v>0.409</v>
       </c>
       <c r="AC87" s="1">
-        <v>0.737</v>
+        <v>0.692</v>
       </c>
       <c r="AE87" s="1">
-        <v>32.9</v>
+        <v>41.1</v>
       </c>
       <c r="AF87" s="1">
-        <v>27.4</v>
+        <v>33.6</v>
       </c>
       <c r="AG87" s="1">
-        <v>10.2</v>
+        <v>9.0</v>
       </c>
       <c r="AH87" s="1">
-        <v>10.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B88" s="1">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D88" s="1">
-        <v>2020.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H88" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I88" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J88" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K88" s="1">
-        <v>178.0</v>
+        <v>179.0</v>
       </c>
       <c r="L88" s="1">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="M88" s="1">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="N88" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="O88" s="1">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="P88" s="1">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="Q88" s="1">
         <v>38.0</v>
       </c>
       <c r="R88" s="1">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="S88" s="1">
-        <v>52.0</v>
+        <v>34.0</v>
       </c>
       <c r="T88" s="1">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="U88" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="V88" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W88" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="X88" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>136.0</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>0.527</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>0.842</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="AH88" s="1">
         <v>10.0</v>
-      </c>
-      <c r="V88" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="W88" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="X88" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="Y88" s="1">
-        <v>129.0</v>
-      </c>
-      <c r="AA88" s="1">
-        <v>0.511</v>
-      </c>
-      <c r="AB88" s="1">
-        <v>0.294</v>
-      </c>
-      <c r="AC88" s="1">
-        <v>0.711</v>
-      </c>
-      <c r="AE88" s="1">
-        <v>35.6</v>
-      </c>
-      <c r="AF88" s="1">
-        <v>25.8</v>
-      </c>
-      <c r="AG88" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="AH88" s="1">
-        <v>7.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>2020.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2020.0</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H89" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I89" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="J89" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K89" s="1">
-        <v>183.0</v>
-      </c>
-      <c r="L89" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="M89" s="1">
-        <v>97.0</v>
-      </c>
-      <c r="N89" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="O89" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="P89" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="R89" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="S89" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="T89" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="U89" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="V89" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="W89" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="X89" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="Y89" s="1">
-        <v>135.0</v>
-      </c>
-      <c r="AA89" s="1">
-        <v>0.536</v>
-      </c>
-      <c r="AB89" s="1">
-        <v>0.286</v>
-      </c>
-      <c r="AC89" s="1">
-        <v>0.781</v>
-      </c>
-      <c r="AE89" s="1">
-        <v>36.6</v>
-      </c>
-      <c r="AF89" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="AG89" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="AH89" s="1">
-        <v>9.0</v>
+        <v>2019.0</v>
       </c>
     </row>
     <row r="90">
@@ -9009,209 +8830,307 @@
         <v>2020.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H90" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I90" s="1">
         <v>4.0</v>
       </c>
       <c r="J90" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K90" s="1">
-        <v>236.0</v>
+        <v>164.0</v>
       </c>
       <c r="L90" s="1">
-        <v>68.0</v>
+        <v>48.0</v>
       </c>
       <c r="M90" s="1">
-        <v>115.0</v>
+        <v>80.0</v>
       </c>
       <c r="N90" s="1">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="O90" s="1">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="P90" s="1">
         <v>28.0</v>
       </c>
       <c r="Q90" s="1">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="R90" s="1">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="S90" s="1">
-        <v>71.0</v>
+        <v>51.0</v>
       </c>
       <c r="T90" s="1">
         <v>51.0</v>
       </c>
       <c r="U90" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="V90" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="W90" s="1">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="X90" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y90" s="1">
-        <v>179.0</v>
+        <v>137.0</v>
       </c>
       <c r="AA90" s="1">
-        <v>0.591</v>
+        <v>0.6</v>
       </c>
       <c r="AB90" s="1">
-        <v>0.417</v>
+        <v>0.464</v>
       </c>
       <c r="AC90" s="1">
-        <v>0.667</v>
+        <v>0.737</v>
       </c>
       <c r="AE90" s="1">
-        <v>39.4</v>
+        <v>32.9</v>
       </c>
       <c r="AF90" s="1">
-        <v>29.8</v>
+        <v>27.4</v>
       </c>
       <c r="AG90" s="1">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
       <c r="AH90" s="1">
-        <v>8.5</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="B91" s="1">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D91" s="1">
-        <v>2021.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H91" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>178.0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="R91" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="T91" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="U91" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V91" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="W91" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="X91" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>0.511</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>0.294</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>0.711</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>2020.0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2020.0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>183.0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="N92" s="1">
         <v>6.0</v>
       </c>
-      <c r="I91" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J91" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K91" s="1">
-        <v>224.0</v>
-      </c>
-      <c r="L91" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="M91" s="1">
-        <v>114.0</v>
-      </c>
-      <c r="N91" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="O91" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="P91" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="R91" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="S91" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="T91" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="U91" s="1">
+      <c r="O92" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="P92" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="R92" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="T92" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="U92" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="V92" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W92" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="X92" s="1">
         <v>9.0</v>
       </c>
-      <c r="V91" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W91" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="X91" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="Y91" s="1">
-        <v>140.0</v>
-      </c>
-      <c r="AA91" s="1">
-        <v>0.474</v>
-      </c>
-      <c r="AB91" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="AC91" s="1">
-        <v>0.609</v>
-      </c>
-      <c r="AE91" s="1">
-        <v>37.3</v>
-      </c>
-      <c r="AF91" s="1">
-        <v>23.3</v>
-      </c>
-      <c r="AG91" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="AH91" s="1">
-        <v>8.0</v>
+      <c r="Y92" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>0.536</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0.286</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>0.781</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>9.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>2023.0</v>
+        <v>2020.0</v>
       </c>
       <c r="B93" s="1">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D93" s="1">
-        <v>2023.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H93" s="1">
         <v>6.0</v>
@@ -9223,363 +9142,564 @@
         <v>2.0</v>
       </c>
       <c r="K93" s="1">
-        <v>223.0</v>
+        <v>236.0</v>
       </c>
       <c r="L93" s="1">
-        <v>52.0</v>
+        <v>68.0</v>
       </c>
       <c r="M93" s="1">
-        <v>107.0</v>
+        <v>115.0</v>
       </c>
       <c r="N93" s="1">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="O93" s="1">
-        <v>41.0</v>
+        <v>36.0</v>
       </c>
       <c r="P93" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>71.0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="U93" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="V93" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W93" s="1">
         <v>21.0</v>
       </c>
-      <c r="Q93" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="R93" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="S93" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="T93" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="U93" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="V93" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="W93" s="1">
-        <v>18.0</v>
-      </c>
       <c r="X93" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y93" s="1">
-        <v>133.0</v>
+        <v>179.0</v>
       </c>
       <c r="AA93" s="1">
-        <v>0.486</v>
+        <v>0.591</v>
       </c>
       <c r="AB93" s="1">
-        <v>0.195</v>
+        <v>0.417</v>
       </c>
       <c r="AC93" s="1">
-        <v>0.677</v>
+        <v>0.667</v>
       </c>
       <c r="AE93" s="1">
-        <v>37.1</v>
+        <v>39.4</v>
       </c>
       <c r="AF93" s="1">
-        <v>22.2</v>
+        <v>29.8</v>
       </c>
       <c r="AG93" s="1">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="AH93" s="1">
-        <v>5.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B94" s="1">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D94" s="1">
-        <v>2023.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H94" s="1">
         <v>6.0</v>
       </c>
       <c r="I94" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J94" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K94" s="1">
-        <v>226.0</v>
+        <v>224.0</v>
       </c>
       <c r="L94" s="1">
         <v>54.0</v>
       </c>
       <c r="M94" s="1">
-        <v>109.0</v>
+        <v>114.0</v>
       </c>
       <c r="N94" s="1">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="O94" s="1">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="P94" s="1">
-        <v>27.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q94" s="1">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
       <c r="R94" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S94" s="1">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="T94" s="1">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="U94" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="V94" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W94" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="X94" s="1">
         <v>7.0</v>
       </c>
-      <c r="W94" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="X94" s="1">
-        <v>11.0</v>
-      </c>
       <c r="Y94" s="1">
-        <v>148.0</v>
+        <v>140.0</v>
       </c>
       <c r="AA94" s="1">
-        <v>0.495</v>
+        <v>0.474</v>
       </c>
       <c r="AB94" s="1">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="AC94" s="1">
-        <v>0.844</v>
+        <v>0.609</v>
       </c>
       <c r="AE94" s="1">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="AF94" s="1">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="AG94" s="1">
-        <v>8.8</v>
+        <v>7.2</v>
       </c>
       <c r="AH94" s="1">
-        <v>5.5</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>2023.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D95" s="1">
-        <v>2023.0</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H95" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J95" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="K95" s="1">
-        <v>171.0</v>
-      </c>
-      <c r="L95" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="M95" s="1">
-        <v>79.0</v>
-      </c>
-      <c r="N95" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="O95" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="P95" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="R95" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S95" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="T95" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="U95" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="V95" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W95" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="X95" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="Y95" s="1">
-        <v>111.0</v>
-      </c>
-      <c r="AA95" s="1">
-        <v>0.519</v>
-      </c>
-      <c r="AB95" s="1">
-        <v>0.269</v>
-      </c>
-      <c r="AC95" s="1">
-        <v>0.759</v>
-      </c>
-      <c r="AE95" s="1">
-        <v>42.7</v>
-      </c>
-      <c r="AF95" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="AG95" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="AH95" s="1">
-        <v>10.0</v>
+        <v>2022.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>2024.0</v>
+        <v>2023.0</v>
       </c>
       <c r="B96" s="1">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D96" s="1">
-        <v>2024.0</v>
+        <v>2023.0</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H96" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I96" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J96" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K96" s="1">
-        <v>204.0</v>
+        <v>223.0</v>
       </c>
       <c r="L96" s="1">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="M96" s="1">
-        <v>99.0</v>
+        <v>107.0</v>
       </c>
       <c r="N96" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="O96" s="1">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="P96" s="1">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="Q96" s="1">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="R96" s="1">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="S96" s="1">
-        <v>34.0</v>
+        <v>67.0</v>
       </c>
       <c r="T96" s="1">
-        <v>44.0</v>
+        <v>31.0</v>
       </c>
       <c r="U96" s="1">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="V96" s="1">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="W96" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="X96" s="1">
         <v>11.0</v>
       </c>
       <c r="Y96" s="1">
+        <v>133.0</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>0.486</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>0.195</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>0.677</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>22.2</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="R97" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="U97" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="V97" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="W97" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="X97" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>148.0</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>0.333</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>0.844</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>8.8</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="P98" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="R98" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="T98" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="U98" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="V98" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W98" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X98" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>0.519</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>0.269</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>0.759</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>204.0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>99.0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="R99" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="S99" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="T99" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="U99" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="V99" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W99" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="X99" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Y99" s="1">
         <v>139.0</v>
       </c>
-      <c r="AA96" s="1">
+      <c r="AA99" s="1">
         <v>0.566</v>
       </c>
-      <c r="AB96" s="1">
+      <c r="AB99" s="1">
         <v>0.385</v>
       </c>
-      <c r="AC96" s="1">
+      <c r="AC99" s="1">
         <v>0.739</v>
       </c>
-      <c r="AE96" s="1">
+      <c r="AE99" s="1">
         <v>40.8</v>
       </c>
-      <c r="AF96" s="1">
+      <c r="AF99" s="1">
         <v>27.8</v>
       </c>
-      <c r="AG96" s="1">
+      <c r="AG99" s="1">
         <v>6.8</v>
       </c>
-      <c r="AH96" s="1">
+      <c r="AH99" s="1">
         <v>8.8</v>
       </c>
     </row>
